--- a/data/results/descriptives.xlsx
+++ b/data/results/descriptives.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plagl\portfolio-autoencoder\data\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24114850-CB4E-4E85-A7CD-EE87B8B1D9D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D2BAB2-1DF6-4510-9306-93D071A5E3DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5904" yWindow="0" windowWidth="22056" windowHeight="9648" xr2:uid="{63F4894C-32CF-4AF3-998E-33D874BADDE3}"/>
+    <workbookView xWindow="6888" yWindow="0" windowWidth="22056" windowHeight="9648" xr2:uid="{63F4894C-32CF-4AF3-998E-33D874BADDE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>N</t>
   </si>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFB79F8-33B6-4000-9700-2F754462BA4D}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,6 +802,9 @@
       <c r="E12" t="s">
         <v>10</v>
       </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -819,6 +822,9 @@
       <c r="E13">
         <v>850</v>
       </c>
+      <c r="F13">
+        <v>504</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -836,6 +842,9 @@
       <c r="E14">
         <v>3776</v>
       </c>
+      <c r="F14">
+        <v>3761</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -853,7 +862,9 @@
       <c r="E15" s="3">
         <v>-8.4385336925620294E-2</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <v>-8.4863466038425803E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -871,7 +882,9 @@
       <c r="E16" s="3">
         <v>7.8629481115487301E-2</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3">
+        <v>8.6180501293657605E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -889,7 +902,9 @@
       <c r="E17" s="3">
         <v>5.8326999701421595E-4</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <v>7.2980688090712898E-4</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -907,7 +922,9 @@
       <c r="E18" s="3">
         <v>1.2374706926474599E-4</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>3.21014569275321E-4</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -925,7 +942,9 @@
       <c r="E19" s="3">
         <v>-0.16118737515971099</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3">
+        <v>-0.70182335098008297</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -943,7 +962,9 @@
       <c r="E20" s="4">
         <v>6.1469171417917803</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4">
+        <v>3.0711736247330701</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/results/descriptives.xlsx
+++ b/data/results/descriptives.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plagl\portfolio-autoencoder\data\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D2BAB2-1DF6-4510-9306-93D071A5E3DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28FC92A-8D75-4071-8273-BE07578EB951}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6888" yWindow="0" windowWidth="22056" windowHeight="9648" xr2:uid="{63F4894C-32CF-4AF3-998E-33D874BADDE3}"/>
+    <workbookView xWindow="7872" yWindow="0" windowWidth="22056" windowHeight="9648" xr2:uid="{63F4894C-32CF-4AF3-998E-33D874BADDE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>N</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>SSE</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>JB test</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFB79F8-33B6-4000-9700-2F754462BA4D}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,6 +811,9 @@
       <c r="F12" t="s">
         <v>15</v>
       </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -825,6 +834,9 @@
       <c r="F13">
         <v>504</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -845,6 +857,9 @@
       <c r="F14">
         <v>3761</v>
       </c>
+      <c r="G14">
+        <v>3776</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -865,6 +880,9 @@
       <c r="F15" s="3">
         <v>-8.4863466038425803E-2</v>
       </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -885,8 +903,11 @@
       <c r="F16" s="3">
         <v>8.6180501293657605E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="3">
+        <v>2.2000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -905,8 +926,11 @@
       <c r="F17" s="3">
         <v>7.2980688090712898E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>4.8000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -925,8 +949,11 @@
       <c r="F18" s="1">
         <v>3.21014569275321E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="1">
+        <v>4.1128440000000001E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -945,8 +972,11 @@
       <c r="F19" s="3">
         <v>-0.70182335098008297</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>1.2759879999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -964,6 +994,17 @@
       </c>
       <c r="F20" s="4">
         <v>3.0711736247330701</v>
+      </c>
+      <c r="G20">
+        <v>0.32938800000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>1040.6923160808601</v>
       </c>
     </row>
   </sheetData>

--- a/data/results/descriptives.xlsx
+++ b/data/results/descriptives.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plagl\portfolio-autoencoder\data\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28FC92A-8D75-4071-8273-BE07578EB951}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D190DED-AA7A-4566-82CF-D735F06C2905}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7872" yWindow="0" windowWidth="22056" windowHeight="9648" xr2:uid="{63F4894C-32CF-4AF3-998E-33D874BADDE3}"/>
+    <workbookView xWindow="8856" yWindow="0" windowWidth="22056" windowHeight="9648" activeTab="1" xr2:uid="{63F4894C-32CF-4AF3-998E-33D874BADDE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MSPE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>N</t>
   </si>
@@ -84,14 +85,24 @@
   </si>
   <si>
     <t>JB test</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>Mu</t>
+  </si>
+  <si>
+    <t>Actual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -130,12 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFB79F8-33B6-4000-9700-2F754462BA4D}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1011,4 +1023,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F996F6E-771D-4EBA-93A1-14842A51BA26}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A1:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5.3728700000000001E-4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5.3846199999999997E-4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5.3791423076923002E-4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9.42740246153815E-14</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5.3584064591305405E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.89E-7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.9299999999999998E-7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.9123076923076901E-7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8.2461538461539402E-19</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.93644367970012E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>